--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.355195333333333</v>
+        <v>11.64940266666667</v>
       </c>
       <c r="H2">
-        <v>28.065586</v>
+        <v>34.948208</v>
       </c>
       <c r="I2">
-        <v>0.4481020953400846</v>
+        <v>0.4844115508208772</v>
       </c>
       <c r="J2">
-        <v>0.4481020953400845</v>
+        <v>0.4844115508208771</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>35.34803490008466</v>
+        <v>30.26708581197689</v>
       </c>
       <c r="R2">
-        <v>318.132314100762</v>
+        <v>272.403772307792</v>
       </c>
       <c r="S2">
-        <v>0.1905765453263882</v>
+        <v>0.1678976888259032</v>
       </c>
       <c r="T2">
-        <v>0.1905765453263882</v>
+        <v>0.1678976888259032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.355195333333333</v>
+        <v>11.64940266666667</v>
       </c>
       <c r="H3">
-        <v>28.065586</v>
+        <v>34.948208</v>
       </c>
       <c r="I3">
-        <v>0.4481020953400846</v>
+        <v>0.4844115508208772</v>
       </c>
       <c r="J3">
-        <v>0.4481020953400845</v>
+        <v>0.4844115508208771</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>40.53983464145112</v>
+        <v>50.48156034707555</v>
       </c>
       <c r="R3">
-        <v>364.85851177306</v>
+        <v>454.33404312368</v>
       </c>
       <c r="S3">
-        <v>0.2185677833551162</v>
+        <v>0.2800314957063174</v>
       </c>
       <c r="T3">
-        <v>0.2185677833551162</v>
+        <v>0.2800314957063172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.355195333333333</v>
+        <v>11.64940266666667</v>
       </c>
       <c r="H4">
-        <v>28.065586</v>
+        <v>34.948208</v>
       </c>
       <c r="I4">
-        <v>0.4481020953400846</v>
+        <v>0.4844115508208772</v>
       </c>
       <c r="J4">
-        <v>0.4481020953400845</v>
+        <v>0.4844115508208771</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>4.503640927841777</v>
+        <v>5.46595021194489</v>
       </c>
       <c r="R4">
-        <v>40.532768350576</v>
+        <v>49.193551907504</v>
       </c>
       <c r="S4">
-        <v>0.02428107621384519</v>
+        <v>0.03032073895465201</v>
       </c>
       <c r="T4">
-        <v>0.02428107621384519</v>
+        <v>0.030320738954652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.355195333333333</v>
+        <v>11.64940266666667</v>
       </c>
       <c r="H5">
-        <v>28.065586</v>
+        <v>34.948208</v>
       </c>
       <c r="I5">
-        <v>0.4481020953400846</v>
+        <v>0.4844115508208772</v>
       </c>
       <c r="J5">
-        <v>0.4481020953400845</v>
+        <v>0.4844115508208771</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>2.722224632468444</v>
+        <v>1.110762777998222</v>
       </c>
       <c r="R5">
-        <v>24.500021692216</v>
+        <v>9.996865001983998</v>
       </c>
       <c r="S5">
-        <v>0.01467669044473503</v>
+        <v>0.006161627334004656</v>
       </c>
       <c r="T5">
-        <v>0.01467669044473503</v>
+        <v>0.006161627334004654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>31.271319</v>
       </c>
       <c r="I6">
-        <v>0.4992856221832745</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="J6">
-        <v>0.4992856221832744</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>39.38559043034699</v>
+        <v>27.082696074909</v>
       </c>
       <c r="R6">
-        <v>354.470313873123</v>
+        <v>243.744264674181</v>
       </c>
       <c r="S6">
-        <v>0.2123447535647196</v>
+        <v>0.1502332304602729</v>
       </c>
       <c r="T6">
-        <v>0.2123447535647196</v>
+        <v>0.1502332304602729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>31.271319</v>
       </c>
       <c r="I7">
-        <v>0.4992856221832745</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="J7">
-        <v>0.4992856221832744</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>45.17041266411</v>
+        <v>45.17041266410999</v>
       </c>
       <c r="R7">
-        <v>406.53371397699</v>
+        <v>406.5337139769899</v>
       </c>
       <c r="S7">
-        <v>0.2435332323515614</v>
+        <v>0.2505694779051154</v>
       </c>
       <c r="T7">
-        <v>0.2435332323515614</v>
+        <v>0.2505694779051154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>31.271319</v>
       </c>
       <c r="I8">
-        <v>0.4992856221832745</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="J8">
-        <v>0.4992856221832744</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>5.018059915655999</v>
+        <v>4.890879461282999</v>
       </c>
       <c r="R8">
-        <v>45.162539240904</v>
+        <v>44.017915151547</v>
       </c>
       <c r="S8">
-        <v>0.02705453148017167</v>
+        <v>0.02713070438881013</v>
       </c>
       <c r="T8">
-        <v>0.02705453148017167</v>
+        <v>0.02713070438881012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>31.271319</v>
       </c>
       <c r="I9">
-        <v>0.4992856221832745</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="J9">
-        <v>0.4992856221832744</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>3.033165060996</v>
+        <v>0.9938998063679998</v>
       </c>
       <c r="R9">
-        <v>27.298485548964</v>
+        <v>8.945098257311999</v>
       </c>
       <c r="S9">
-        <v>0.01635310478682187</v>
+        <v>0.005513364631479219</v>
       </c>
       <c r="T9">
-        <v>0.01635310478682187</v>
+        <v>0.005513364631479219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.088525666666667</v>
+        <v>1.677245</v>
       </c>
       <c r="H10">
-        <v>3.265577</v>
+        <v>5.031734999999999</v>
       </c>
       <c r="I10">
-        <v>0.05213901096504407</v>
+        <v>0.06974407828492055</v>
       </c>
       <c r="J10">
-        <v>0.05213901096504406</v>
+        <v>0.06974407828492052</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>4.112927831434333</v>
+        <v>4.357761491751666</v>
       </c>
       <c r="R10">
-        <v>37.016350482909</v>
+        <v>39.219853425765</v>
       </c>
       <c r="S10">
-        <v>0.02217457291493257</v>
+        <v>0.02417339044349301</v>
       </c>
       <c r="T10">
-        <v>0.02217457291493257</v>
+        <v>0.024173390443493</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.088525666666667</v>
+        <v>1.677245</v>
       </c>
       <c r="H11">
-        <v>3.265577</v>
+        <v>5.031734999999999</v>
       </c>
       <c r="I11">
-        <v>0.05213901096504407</v>
+        <v>0.06974407828492055</v>
       </c>
       <c r="J11">
-        <v>0.05213901096504406</v>
+        <v>0.06974407828492052</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>4.717020752352222</v>
+        <v>7.268179073816666</v>
       </c>
       <c r="R11">
-        <v>42.45318677117</v>
+        <v>65.41361166434999</v>
       </c>
       <c r="S11">
-        <v>0.02543149914152693</v>
+        <v>0.04031806947148268</v>
       </c>
       <c r="T11">
-        <v>0.02543149914152692</v>
+        <v>0.04031806947148266</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.088525666666667</v>
+        <v>1.677245</v>
       </c>
       <c r="H12">
-        <v>3.265577</v>
+        <v>5.031734999999999</v>
       </c>
       <c r="I12">
-        <v>0.05213901096504407</v>
+        <v>0.06974407828492055</v>
       </c>
       <c r="J12">
-        <v>0.05213901096504406</v>
+        <v>0.06974407828492052</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>0.5240220614035555</v>
+        <v>0.7869706220616666</v>
       </c>
       <c r="R12">
-        <v>4.716198552631999</v>
+        <v>7.082735598554999</v>
       </c>
       <c r="S12">
-        <v>0.002825229589689663</v>
+        <v>0.004365486305449078</v>
       </c>
       <c r="T12">
-        <v>0.002825229589689662</v>
+        <v>0.004365486305449076</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.088525666666667</v>
+        <v>1.677245</v>
       </c>
       <c r="H13">
-        <v>3.265577</v>
+        <v>5.031734999999999</v>
       </c>
       <c r="I13">
-        <v>0.05213901096504407</v>
+        <v>0.06974407828492055</v>
       </c>
       <c r="J13">
-        <v>0.05213901096504406</v>
+        <v>0.06974407828492052</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>0.3167450039568888</v>
+        <v>0.1599241925866667</v>
       </c>
       <c r="R13">
-        <v>2.850705035612</v>
+        <v>1.43931773328</v>
       </c>
       <c r="S13">
-        <v>0.001707709318894908</v>
+        <v>0.0008871320644957795</v>
       </c>
       <c r="T13">
-        <v>0.001707709318894908</v>
+        <v>0.0008871320644957791</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.009880666666666668</v>
+        <v>0.2981443333333333</v>
       </c>
       <c r="H14">
-        <v>0.029642</v>
+        <v>0.894433</v>
       </c>
       <c r="I14">
-        <v>0.0004732715115968286</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="J14">
-        <v>0.0004732715115968285</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>0.03733349627933334</v>
+        <v>0.7746285693407778</v>
       </c>
       <c r="R14">
-        <v>0.336001466514</v>
+        <v>6.971657124067001</v>
       </c>
       <c r="S14">
-        <v>0.000201281026398836</v>
+        <v>0.004297022425573839</v>
       </c>
       <c r="T14">
-        <v>0.0002012810263988359</v>
+        <v>0.004297022425573839</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.009880666666666668</v>
+        <v>0.2981443333333333</v>
       </c>
       <c r="H15">
-        <v>0.029642</v>
+        <v>0.894433</v>
       </c>
       <c r="I15">
-        <v>0.0004732715115968286</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="J15">
-        <v>0.0004732715115968285</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>0.0428169138688889</v>
+        <v>1.291979647881111</v>
       </c>
       <c r="R15">
-        <v>0.38535222482</v>
+        <v>11.62781683093</v>
       </c>
       <c r="S15">
-        <v>0.0002308445023813989</v>
+        <v>0.007166874215670472</v>
       </c>
       <c r="T15">
-        <v>0.0002308445023813988</v>
+        <v>0.007166874215670471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.009880666666666668</v>
+        <v>0.2981443333333333</v>
       </c>
       <c r="H16">
-        <v>0.029642</v>
+        <v>0.894433</v>
       </c>
       <c r="I16">
-        <v>0.0004732715115968286</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="J16">
-        <v>0.0004732715115968285</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>0.004756605630222222</v>
+        <v>0.1398906131587778</v>
       </c>
       <c r="R16">
-        <v>0.042809450672</v>
+        <v>1.259015518429</v>
       </c>
       <c r="S16">
-        <v>2.564491833987715E-05</v>
+        <v>0.0007760017196139572</v>
       </c>
       <c r="T16">
-        <v>2.564491833987715E-05</v>
+        <v>0.0007760017196139571</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.009880666666666668</v>
+        <v>0.2981443333333333</v>
       </c>
       <c r="H17">
-        <v>0.029642</v>
+        <v>0.894433</v>
       </c>
       <c r="I17">
-        <v>0.0004732715115968286</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="J17">
-        <v>0.0004732715115968285</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>0.002875129083555556</v>
+        <v>0.02842786342044444</v>
       </c>
       <c r="R17">
-        <v>0.025876161752</v>
+        <v>0.255850770784</v>
       </c>
       <c r="S17">
-        <v>1.550106447671664E-05</v>
+        <v>0.0001576951476663921</v>
       </c>
       <c r="T17">
-        <v>1.550106447671664E-05</v>
+        <v>0.0001576951476663921</v>
       </c>
     </row>
   </sheetData>
